--- a/prime_transactions_synthetic_data_final.xlsx
+++ b/prime_transactions_synthetic_data_final.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84E7DEA0-FFE9-4B17-BA64-109084B04C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://crayondata-my.sharepoint.com/personal/smrithi_crayondata_ai/Documents/Documents/Hackathon_2025/hackathon_2025/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{84E7DEA0-FFE9-4B17-BA64-109084B04C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48C4B5C1-8150-43BE-BF2E-A270B4737FA2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRIME_Transactions" sheetId="1" r:id="rId1"/>
+    <sheet name="Descriptions" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PRIME_Transactions!$A$1:$H$506</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2897" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2933" uniqueCount="1404">
   <si>
     <t>card_no</t>
   </si>
@@ -4192,13 +4201,64 @@
   </si>
   <si>
     <t>CUST005</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Table name</t>
+  </si>
+  <si>
+    <t>Datatype</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>prime_transactions</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Decimal(10,2)</t>
+  </si>
+  <si>
+    <t>Bigint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The unique identifier for a credit card customer </t>
+  </si>
+  <si>
+    <t>The unique identifier for a credit card</t>
+  </si>
+  <si>
+    <t>Current status of credit card</t>
+  </si>
+  <si>
+    <t>Transaction reference number for all the credit card transactions in Prime</t>
+  </si>
+  <si>
+    <t>The date on which a credit card transaction is performed</t>
+  </si>
+  <si>
+    <t>The status of the credit card transaction</t>
+  </si>
+  <si>
+    <t>The credit card transaction amount</t>
+  </si>
+  <si>
+    <t>The description of the credit card transaction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4210,6 +4270,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4247,10 +4321,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4556,22 +4640,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.7265625" customWidth="1"/>
+    <col min="5" max="5" width="28.7265625" customWidth="1"/>
+    <col min="6" max="6" width="30.26953125" customWidth="1"/>
+    <col min="7" max="7" width="35.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4597,7 +4682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -4620,7 +4705,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -4643,7 +4728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4666,7 +4751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -4689,7 +4774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -4709,7 +4794,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -4732,7 +4817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -4752,7 +4837,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -4775,7 +4860,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -4798,7 +4883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>15</v>
       </c>
@@ -4818,7 +4903,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4841,7 +4926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -4864,7 +4949,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -4887,7 +4972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -4910,7 +4995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -4930,7 +5015,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -4953,7 +5038,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -4973,7 +5058,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>69</v>
       </c>
@@ -4996,7 +5081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -5019,7 +5104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>75</v>
       </c>
@@ -5042,7 +5127,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>78</v>
       </c>
@@ -5065,7 +5150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -5085,7 +5170,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>15</v>
       </c>
@@ -5105,7 +5190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -5128,7 +5213,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -5151,7 +5236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>91</v>
       </c>
@@ -5174,7 +5259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5197,7 +5282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -5220,7 +5305,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -5243,7 +5328,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>107</v>
       </c>
@@ -5266,7 +5351,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>15</v>
       </c>
@@ -5286,7 +5371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>112</v>
       </c>
@@ -5309,7 +5394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>116</v>
       </c>
@@ -5332,7 +5417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5355,7 +5440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>27</v>
       </c>
@@ -5375,7 +5460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>125</v>
       </c>
@@ -5398,7 +5483,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -5421,7 +5506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>27</v>
       </c>
@@ -5441,7 +5526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>132</v>
       </c>
@@ -5464,7 +5549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -5487,7 +5572,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>27</v>
       </c>
@@ -5507,7 +5592,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -5530,7 +5615,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>15</v>
       </c>
@@ -5550,7 +5635,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -5573,7 +5658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -5596,7 +5681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5619,7 +5704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>156</v>
       </c>
@@ -5642,7 +5727,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>15</v>
       </c>
@@ -5662,7 +5747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>15</v>
       </c>
@@ -5682,7 +5767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>161</v>
       </c>
@@ -5705,7 +5790,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -5728,7 +5813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>167</v>
       </c>
@@ -5751,7 +5836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>170</v>
       </c>
@@ -5774,7 +5859,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>174</v>
       </c>
@@ -5797,7 +5882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>177</v>
       </c>
@@ -5820,7 +5905,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>181</v>
       </c>
@@ -5843,7 +5928,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>15</v>
       </c>
@@ -5863,7 +5948,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>184</v>
       </c>
@@ -5886,7 +5971,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>187</v>
       </c>
@@ -5909,7 +5994,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>190</v>
       </c>
@@ -5932,7 +6017,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>194</v>
       </c>
@@ -5955,7 +6040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -5978,7 +6063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>201</v>
       </c>
@@ -6001,7 +6086,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>204</v>
       </c>
@@ -6024,7 +6109,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>15</v>
       </c>
@@ -6044,7 +6129,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>15</v>
       </c>
@@ -6064,7 +6149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -6087,7 +6172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>27</v>
       </c>
@@ -6107,7 +6192,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>27</v>
       </c>
@@ -6127,7 +6212,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>15</v>
       </c>
@@ -6147,7 +6232,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -6170,7 +6255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>27</v>
       </c>
@@ -6190,7 +6275,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>226</v>
       </c>
@@ -6213,7 +6298,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>230</v>
       </c>
@@ -6236,7 +6321,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>233</v>
       </c>
@@ -6259,7 +6344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>236</v>
       </c>
@@ -6282,7 +6367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>240</v>
       </c>
@@ -6305,7 +6390,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>243</v>
       </c>
@@ -6328,7 +6413,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>15</v>
       </c>
@@ -6348,7 +6433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>248</v>
       </c>
@@ -6371,7 +6456,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>252</v>
       </c>
@@ -6394,7 +6479,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>255</v>
       </c>
@@ -6417,7 +6502,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>258</v>
       </c>
@@ -6440,7 +6525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
         <v>15</v>
       </c>
@@ -6460,7 +6545,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>263</v>
       </c>
@@ -6483,7 +6568,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>15</v>
       </c>
@@ -6503,7 +6588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>269</v>
       </c>
@@ -6526,7 +6611,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>272</v>
       </c>
@@ -6549,7 +6634,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>27</v>
       </c>
@@ -6569,7 +6654,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>275</v>
       </c>
@@ -6592,7 +6677,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>279</v>
       </c>
@@ -6615,7 +6700,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>281</v>
       </c>
@@ -6638,7 +6723,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>284</v>
       </c>
@@ -6661,7 +6746,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B95" t="s">
         <v>15</v>
       </c>
@@ -6681,7 +6766,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B96" t="s">
         <v>15</v>
       </c>
@@ -6701,7 +6786,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B97" t="s">
         <v>27</v>
       </c>
@@ -6721,7 +6806,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>27</v>
       </c>
@@ -6741,7 +6826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>296</v>
       </c>
@@ -6764,7 +6849,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>300</v>
       </c>
@@ -6787,7 +6872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>302</v>
       </c>
@@ -6810,7 +6895,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>305</v>
       </c>
@@ -6833,7 +6918,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>308</v>
       </c>
@@ -6856,7 +6941,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>27</v>
       </c>
@@ -6876,7 +6961,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>312</v>
       </c>
@@ -6899,7 +6984,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -6922,7 +7007,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>317</v>
       </c>
@@ -6945,7 +7030,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>320</v>
       </c>
@@ -6968,7 +7053,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>15</v>
       </c>
@@ -6988,7 +7073,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>325</v>
       </c>
@@ -7011,7 +7096,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>15</v>
       </c>
@@ -7031,7 +7116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>330</v>
       </c>
@@ -7054,7 +7139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -7077,7 +7162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>335</v>
       </c>
@@ -7100,7 +7185,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>27</v>
       </c>
@@ -7120,7 +7205,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>339</v>
       </c>
@@ -7143,7 +7228,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>343</v>
       </c>
@@ -7166,7 +7251,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>347</v>
       </c>
@@ -7189,7 +7274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>350</v>
       </c>
@@ -7212,7 +7297,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>353</v>
       </c>
@@ -7235,7 +7320,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>27</v>
       </c>
@@ -7255,7 +7340,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>358</v>
       </c>
@@ -7278,7 +7363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>360</v>
       </c>
@@ -7301,7 +7386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>363</v>
       </c>
@@ -7324,7 +7409,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>367</v>
       </c>
@@ -7347,7 +7432,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>370</v>
       </c>
@@ -7370,7 +7455,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>374</v>
       </c>
@@ -7393,7 +7478,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>378</v>
       </c>
@@ -7416,7 +7501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B129" t="s">
         <v>15</v>
       </c>
@@ -7436,7 +7521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>382</v>
       </c>
@@ -7459,7 +7544,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>385</v>
       </c>
@@ -7482,7 +7567,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B132" t="s">
         <v>27</v>
       </c>
@@ -7502,7 +7587,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>389</v>
       </c>
@@ -7525,7 +7610,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>392</v>
       </c>
@@ -7548,7 +7633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B135" t="s">
         <v>27</v>
       </c>
@@ -7568,7 +7653,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B136" t="s">
         <v>27</v>
       </c>
@@ -7588,7 +7673,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B137" t="s">
         <v>15</v>
       </c>
@@ -7608,7 +7693,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>400</v>
       </c>
@@ -7631,7 +7716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>402</v>
       </c>
@@ -7654,7 +7739,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B140" t="s">
         <v>15</v>
       </c>
@@ -7674,7 +7759,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>408</v>
       </c>
@@ -7697,7 +7782,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B142" t="s">
         <v>27</v>
       </c>
@@ -7717,7 +7802,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>413</v>
       </c>
@@ -7740,7 +7825,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>415</v>
       </c>
@@ -7763,7 +7848,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B145" t="s">
         <v>27</v>
       </c>
@@ -7783,7 +7868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>420</v>
       </c>
@@ -7806,7 +7891,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>423</v>
       </c>
@@ -7829,7 +7914,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>427</v>
       </c>
@@ -7852,7 +7937,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>430</v>
       </c>
@@ -7875,7 +7960,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B150" t="s">
         <v>15</v>
       </c>
@@ -7895,7 +7980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B151" t="s">
         <v>15</v>
       </c>
@@ -7915,7 +8000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B152" t="s">
         <v>15</v>
       </c>
@@ -7935,7 +8020,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B153" t="s">
         <v>27</v>
       </c>
@@ -7955,7 +8040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>440</v>
       </c>
@@ -7978,7 +8063,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>444</v>
       </c>
@@ -8001,7 +8086,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>446</v>
       </c>
@@ -8024,7 +8109,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -8047,7 +8132,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B158" t="s">
         <v>15</v>
       </c>
@@ -8067,7 +8152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>453</v>
       </c>
@@ -8090,7 +8175,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>456</v>
       </c>
@@ -8113,7 +8198,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B161" t="s">
         <v>15</v>
       </c>
@@ -8133,7 +8218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -8156,7 +8241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>15</v>
       </c>
@@ -8176,7 +8261,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B164" t="s">
         <v>15</v>
       </c>
@@ -8196,7 +8281,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B165" t="s">
         <v>15</v>
       </c>
@@ -8216,7 +8301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>471</v>
       </c>
@@ -8239,7 +8324,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>475</v>
       </c>
@@ -8262,7 +8347,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>478</v>
       </c>
@@ -8285,7 +8370,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
         <v>27</v>
       </c>
@@ -8305,7 +8390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>482</v>
       </c>
@@ -8328,7 +8413,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>485</v>
       </c>
@@ -8351,7 +8436,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>488</v>
       </c>
@@ -8374,7 +8459,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B173" t="s">
         <v>15</v>
       </c>
@@ -8394,7 +8479,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>492</v>
       </c>
@@ -8417,7 +8502,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>495</v>
       </c>
@@ -8440,7 +8525,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>497</v>
       </c>
@@ -8463,7 +8548,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>501</v>
       </c>
@@ -8486,7 +8571,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>503</v>
       </c>
@@ -8509,7 +8594,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>506</v>
       </c>
@@ -8532,7 +8617,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>509</v>
       </c>
@@ -8555,7 +8640,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B181" t="s">
         <v>27</v>
       </c>
@@ -8575,7 +8660,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B182" t="s">
         <v>27</v>
       </c>
@@ -8595,7 +8680,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B183" t="s">
         <v>27</v>
       </c>
@@ -8615,7 +8700,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>518</v>
       </c>
@@ -8638,7 +8723,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>521</v>
       </c>
@@ -8661,7 +8746,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>524</v>
       </c>
@@ -8684,7 +8769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B187" t="s">
         <v>27</v>
       </c>
@@ -8704,7 +8789,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B188" t="s">
         <v>15</v>
       </c>
@@ -8724,7 +8809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B189" t="s">
         <v>27</v>
       </c>
@@ -8744,7 +8829,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>533</v>
       </c>
@@ -8767,7 +8852,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>536</v>
       </c>
@@ -8790,7 +8875,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>539</v>
       </c>
@@ -8813,7 +8898,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>541</v>
       </c>
@@ -8836,7 +8921,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B194" t="s">
         <v>15</v>
       </c>
@@ -8856,7 +8941,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>548</v>
       </c>
@@ -8879,7 +8964,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>551</v>
       </c>
@@ -8902,7 +8987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>554</v>
       </c>
@@ -8925,7 +9010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B198" t="s">
         <v>15</v>
       </c>
@@ -8945,7 +9030,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>27</v>
       </c>
@@ -8965,7 +9050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>561</v>
       </c>
@@ -8988,7 +9073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B201" t="s">
         <v>15</v>
       </c>
@@ -9008,7 +9093,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>566</v>
       </c>
@@ -9031,7 +9116,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>568</v>
       </c>
@@ -9054,7 +9139,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>27</v>
       </c>
@@ -9074,7 +9159,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>574</v>
       </c>
@@ -9097,7 +9182,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>577</v>
       </c>
@@ -9120,7 +9205,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B207" t="s">
         <v>15</v>
       </c>
@@ -9140,7 +9225,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>583</v>
       </c>
@@ -9163,7 +9248,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>15</v>
       </c>
@@ -9183,7 +9268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>587</v>
       </c>
@@ -9206,7 +9291,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>590</v>
       </c>
@@ -9229,7 +9314,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>15</v>
       </c>
@@ -9249,7 +9334,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>595</v>
       </c>
@@ -9272,7 +9357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B214" t="s">
         <v>27</v>
       </c>
@@ -9292,7 +9377,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>599</v>
       </c>
@@ -9315,7 +9400,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>27</v>
       </c>
@@ -9335,7 +9420,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B217" t="s">
         <v>15</v>
       </c>
@@ -9355,7 +9440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>606</v>
       </c>
@@ -9378,7 +9463,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>609</v>
       </c>
@@ -9401,7 +9486,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B220" t="s">
         <v>15</v>
       </c>
@@ -9421,7 +9506,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>612</v>
       </c>
@@ -9444,7 +9529,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>615</v>
       </c>
@@ -9467,7 +9552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>618</v>
       </c>
@@ -9490,7 +9575,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>622</v>
       </c>
@@ -9513,7 +9598,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>624</v>
       </c>
@@ -9536,7 +9621,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>627</v>
       </c>
@@ -9559,7 +9644,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B227" t="s">
         <v>15</v>
       </c>
@@ -9579,7 +9664,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>633</v>
       </c>
@@ -9602,7 +9687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>636</v>
       </c>
@@ -9625,7 +9710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>638</v>
       </c>
@@ -9648,7 +9733,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>641</v>
       </c>
@@ -9671,7 +9756,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>15</v>
       </c>
@@ -9691,7 +9776,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>647</v>
       </c>
@@ -9714,7 +9799,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>650</v>
       </c>
@@ -9737,7 +9822,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>652</v>
       </c>
@@ -9760,7 +9845,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>654</v>
       </c>
@@ -9783,7 +9868,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>657</v>
       </c>
@@ -9806,7 +9891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>660</v>
       </c>
@@ -9829,7 +9914,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>664</v>
       </c>
@@ -9852,7 +9937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>666</v>
       </c>
@@ -9875,7 +9960,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>668</v>
       </c>
@@ -9898,7 +9983,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>671</v>
       </c>
@@ -9921,7 +10006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>674</v>
       </c>
@@ -9944,7 +10029,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>677</v>
       </c>
@@ -9967,7 +10052,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>27</v>
       </c>
@@ -9987,7 +10072,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>683</v>
       </c>
@@ -10010,7 +10095,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>687</v>
       </c>
@@ -10033,7 +10118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>690</v>
       </c>
@@ -10056,7 +10141,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>693</v>
       </c>
@@ -10079,7 +10164,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>696</v>
       </c>
@@ -10102,7 +10187,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>700</v>
       </c>
@@ -10125,7 +10210,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>704</v>
       </c>
@@ -10148,7 +10233,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>706</v>
       </c>
@@ -10171,7 +10256,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>708</v>
       </c>
@@ -10194,7 +10279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>15</v>
       </c>
@@ -10214,7 +10299,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>714</v>
       </c>
@@ -10237,7 +10322,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B257" t="s">
         <v>15</v>
       </c>
@@ -10257,7 +10342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>718</v>
       </c>
@@ -10280,7 +10365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>721</v>
       </c>
@@ -10303,7 +10388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>724</v>
       </c>
@@ -10326,7 +10411,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>726</v>
       </c>
@@ -10349,7 +10434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>729</v>
       </c>
@@ -10372,7 +10457,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>731</v>
       </c>
@@ -10395,7 +10480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>734</v>
       </c>
@@ -10418,7 +10503,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>737</v>
       </c>
@@ -10441,7 +10526,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>740</v>
       </c>
@@ -10464,7 +10549,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B267" t="s">
         <v>15</v>
       </c>
@@ -10484,7 +10569,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B268" t="s">
         <v>27</v>
       </c>
@@ -10504,7 +10589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>746</v>
       </c>
@@ -10527,7 +10612,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>748</v>
       </c>
@@ -10550,7 +10635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>750</v>
       </c>
@@ -10573,7 +10658,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B272" t="s">
         <v>15</v>
       </c>
@@ -10593,7 +10678,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>754</v>
       </c>
@@ -10616,7 +10701,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>757</v>
       </c>
@@ -10639,7 +10724,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>761</v>
       </c>
@@ -10662,7 +10747,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>764</v>
       </c>
@@ -10685,7 +10770,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>768</v>
       </c>
@@ -10708,7 +10793,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>770</v>
       </c>
@@ -10731,7 +10816,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B279" t="s">
         <v>27</v>
       </c>
@@ -10751,7 +10836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>774</v>
       </c>
@@ -10774,7 +10859,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>777</v>
       </c>
@@ -10797,7 +10882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B282" t="s">
         <v>27</v>
       </c>
@@ -10817,7 +10902,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B283" t="s">
         <v>27</v>
       </c>
@@ -10837,7 +10922,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B284" t="s">
         <v>15</v>
       </c>
@@ -10857,7 +10942,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>785</v>
       </c>
@@ -10880,7 +10965,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B286" t="s">
         <v>15</v>
       </c>
@@ -10900,7 +10985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>789</v>
       </c>
@@ -10923,7 +11008,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B288" t="s">
         <v>27</v>
       </c>
@@ -10943,7 +11028,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B289" t="s">
         <v>27</v>
       </c>
@@ -10963,7 +11048,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>795</v>
       </c>
@@ -10986,7 +11071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B291" t="s">
         <v>27</v>
       </c>
@@ -11006,7 +11091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B292" t="s">
         <v>15</v>
       </c>
@@ -11026,7 +11111,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>803</v>
       </c>
@@ -11049,7 +11134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>806</v>
       </c>
@@ -11072,7 +11157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B295" t="s">
         <v>27</v>
       </c>
@@ -11092,7 +11177,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>810</v>
       </c>
@@ -11115,7 +11200,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B297" t="s">
         <v>15</v>
       </c>
@@ -11135,7 +11220,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>814</v>
       </c>
@@ -11158,7 +11243,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>817</v>
       </c>
@@ -11181,7 +11266,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>820</v>
       </c>
@@ -11204,7 +11289,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>823</v>
       </c>
@@ -11227,7 +11312,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>825</v>
       </c>
@@ -11250,7 +11335,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>828</v>
       </c>
@@ -11273,7 +11358,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>832</v>
       </c>
@@ -11296,7 +11381,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B305" t="s">
         <v>15</v>
       </c>
@@ -11316,7 +11401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>837</v>
       </c>
@@ -11339,7 +11424,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>840</v>
       </c>
@@ -11362,7 +11447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>843</v>
       </c>
@@ -11385,7 +11470,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>845</v>
       </c>
@@ -11408,7 +11493,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>848</v>
       </c>
@@ -11431,7 +11516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>850</v>
       </c>
@@ -11454,7 +11539,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>853</v>
       </c>
@@ -11477,7 +11562,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>856</v>
       </c>
@@ -11500,7 +11585,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>859</v>
       </c>
@@ -11523,7 +11608,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>862</v>
       </c>
@@ -11546,7 +11631,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>864</v>
       </c>
@@ -11569,7 +11654,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B317" t="s">
         <v>15</v>
       </c>
@@ -11589,7 +11674,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B318" t="s">
         <v>15</v>
       </c>
@@ -11609,7 +11694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B319" t="s">
         <v>27</v>
       </c>
@@ -11629,7 +11714,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B320" t="s">
         <v>27</v>
       </c>
@@ -11649,7 +11734,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>876</v>
       </c>
@@ -11672,7 +11757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B322" t="s">
         <v>27</v>
       </c>
@@ -11692,7 +11777,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>881</v>
       </c>
@@ -11715,7 +11800,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B324" t="s">
         <v>27</v>
       </c>
@@ -11735,7 +11820,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>886</v>
       </c>
@@ -11758,7 +11843,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>888</v>
       </c>
@@ -11781,7 +11866,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>891</v>
       </c>
@@ -11804,7 +11889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B328" t="s">
         <v>15</v>
       </c>
@@ -11824,7 +11909,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>895</v>
       </c>
@@ -11847,7 +11932,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>898</v>
       </c>
@@ -11870,7 +11955,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>901</v>
       </c>
@@ -11893,7 +11978,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B332" t="s">
         <v>15</v>
       </c>
@@ -11913,7 +11998,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>905</v>
       </c>
@@ -11936,7 +12021,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B334" t="s">
         <v>27</v>
       </c>
@@ -11956,7 +12041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>909</v>
       </c>
@@ -11979,7 +12064,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>913</v>
       </c>
@@ -12002,7 +12087,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B337" t="s">
         <v>27</v>
       </c>
@@ -12022,7 +12107,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>918</v>
       </c>
@@ -12045,7 +12130,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>921</v>
       </c>
@@ -12068,7 +12153,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>924</v>
       </c>
@@ -12091,7 +12176,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>927</v>
       </c>
@@ -12114,7 +12199,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>931</v>
       </c>
@@ -12137,7 +12222,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>934</v>
       </c>
@@ -12160,7 +12245,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>937</v>
       </c>
@@ -12183,7 +12268,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B345" t="s">
         <v>27</v>
       </c>
@@ -12203,7 +12288,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B346" t="s">
         <v>15</v>
       </c>
@@ -12223,7 +12308,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B347" t="s">
         <v>15</v>
       </c>
@@ -12243,7 +12328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>949</v>
       </c>
@@ -12266,7 +12351,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>951</v>
       </c>
@@ -12289,7 +12374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>954</v>
       </c>
@@ -12312,7 +12397,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>957</v>
       </c>
@@ -12335,7 +12420,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B352" t="s">
         <v>27</v>
       </c>
@@ -12355,7 +12440,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>961</v>
       </c>
@@ -12378,7 +12463,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>964</v>
       </c>
@@ -12401,7 +12486,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>967</v>
       </c>
@@ -12424,7 +12509,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>969</v>
       </c>
@@ -12447,7 +12532,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>972</v>
       </c>
@@ -12470,7 +12555,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>975</v>
       </c>
@@ -12493,7 +12578,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B359" t="s">
         <v>27</v>
       </c>
@@ -12513,7 +12598,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B360" t="s">
         <v>27</v>
       </c>
@@ -12533,7 +12618,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>984</v>
       </c>
@@ -12556,7 +12641,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>988</v>
       </c>
@@ -12579,7 +12664,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>991</v>
       </c>
@@ -12602,7 +12687,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>994</v>
       </c>
@@ -12625,7 +12710,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>997</v>
       </c>
@@ -12648,7 +12733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>1000</v>
       </c>
@@ -12671,7 +12756,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>1003</v>
       </c>
@@ -12694,7 +12779,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>1007</v>
       </c>
@@ -12717,7 +12802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B369" t="s">
         <v>27</v>
       </c>
@@ -12737,7 +12822,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>1012</v>
       </c>
@@ -12760,7 +12845,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>1015</v>
       </c>
@@ -12783,7 +12868,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>1019</v>
       </c>
@@ -12806,7 +12891,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>1022</v>
       </c>
@@ -12829,7 +12914,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>1026</v>
       </c>
@@ -12852,7 +12937,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>1029</v>
       </c>
@@ -12875,7 +12960,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>1032</v>
       </c>
@@ -12898,7 +12983,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B377" t="s">
         <v>27</v>
       </c>
@@ -12918,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B378" t="s">
         <v>27</v>
       </c>
@@ -12938,7 +13023,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>1038</v>
       </c>
@@ -12961,7 +13046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B380" t="s">
         <v>27</v>
       </c>
@@ -12981,7 +13066,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>1044</v>
       </c>
@@ -13004,7 +13089,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>1047</v>
       </c>
@@ -13027,7 +13112,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>1050</v>
       </c>
@@ -13050,7 +13135,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>1054</v>
       </c>
@@ -13073,7 +13158,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>1057</v>
       </c>
@@ -13096,7 +13181,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>1060</v>
       </c>
@@ -13119,7 +13204,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>1063</v>
       </c>
@@ -13142,7 +13227,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B388" t="s">
         <v>15</v>
       </c>
@@ -13162,7 +13247,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>1069</v>
       </c>
@@ -13185,7 +13270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>1072</v>
       </c>
@@ -13208,7 +13293,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>1076</v>
       </c>
@@ -13231,7 +13316,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>1078</v>
       </c>
@@ -13254,7 +13339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>1081</v>
       </c>
@@ -13277,7 +13362,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>1084</v>
       </c>
@@ -13300,7 +13385,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>1086</v>
       </c>
@@ -13323,7 +13408,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>1089</v>
       </c>
@@ -13346,7 +13431,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B397" t="s">
         <v>27</v>
       </c>
@@ -13366,7 +13451,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>1094</v>
       </c>
@@ -13389,7 +13474,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>1096</v>
       </c>
@@ -13412,7 +13497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>1099</v>
       </c>
@@ -13435,7 +13520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>1101</v>
       </c>
@@ -13458,7 +13543,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>1104</v>
       </c>
@@ -13481,7 +13566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>1107</v>
       </c>
@@ -13504,7 +13589,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>1110</v>
       </c>
@@ -13527,7 +13612,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B405" t="s">
         <v>15</v>
       </c>
@@ -13547,7 +13632,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>1115</v>
       </c>
@@ -13570,7 +13655,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>1118</v>
       </c>
@@ -13593,7 +13678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>1121</v>
       </c>
@@ -13616,7 +13701,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>1124</v>
       </c>
@@ -13639,7 +13724,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B410" t="s">
         <v>27</v>
       </c>
@@ -13659,7 +13744,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>1128</v>
       </c>
@@ -13682,7 +13767,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>1131</v>
       </c>
@@ -13705,7 +13790,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B413" t="s">
         <v>27</v>
       </c>
@@ -13725,7 +13810,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>1136</v>
       </c>
@@ -13748,7 +13833,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>1140</v>
       </c>
@@ -13771,7 +13856,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>1142</v>
       </c>
@@ -13794,7 +13879,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>1145</v>
       </c>
@@ -13817,7 +13902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>1148</v>
       </c>
@@ -13840,7 +13925,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>1150</v>
       </c>
@@ -13863,7 +13948,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>1153</v>
       </c>
@@ -13886,7 +13971,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>1156</v>
       </c>
@@ -13909,7 +13994,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>1159</v>
       </c>
@@ -13932,7 +14017,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B423" t="s">
         <v>15</v>
       </c>
@@ -13952,7 +14037,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>1163</v>
       </c>
@@ -13975,7 +14060,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>1166</v>
       </c>
@@ -13998,7 +14083,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>1170</v>
       </c>
@@ -14021,7 +14106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B427" t="s">
         <v>27</v>
       </c>
@@ -14041,7 +14126,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>1175</v>
       </c>
@@ -14064,7 +14149,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>1178</v>
       </c>
@@ -14087,7 +14172,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>1181</v>
       </c>
@@ -14110,7 +14195,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B431" t="s">
         <v>27</v>
       </c>
@@ -14130,7 +14215,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>1187</v>
       </c>
@@ -14153,7 +14238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>1190</v>
       </c>
@@ -14176,7 +14261,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B434" t="s">
         <v>15</v>
       </c>
@@ -14196,7 +14281,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>1195</v>
       </c>
@@ -14219,7 +14304,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B436" t="s">
         <v>15</v>
       </c>
@@ -14239,7 +14324,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>1201</v>
       </c>
@@ -14262,7 +14347,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>1203</v>
       </c>
@@ -14285,7 +14370,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>1207</v>
       </c>
@@ -14308,7 +14393,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B440" t="s">
         <v>27</v>
       </c>
@@ -14328,7 +14413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>1212</v>
       </c>
@@ -14351,7 +14436,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>1215</v>
       </c>
@@ -14374,7 +14459,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>1218</v>
       </c>
@@ -14397,7 +14482,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>1221</v>
       </c>
@@ -14420,7 +14505,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>1224</v>
       </c>
@@ -14443,7 +14528,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>1226</v>
       </c>
@@ -14466,7 +14551,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>1228</v>
       </c>
@@ -14489,7 +14574,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B448" t="s">
         <v>15</v>
       </c>
@@ -14509,7 +14594,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B449" t="s">
         <v>15</v>
       </c>
@@ -14529,7 +14614,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B450" t="s">
         <v>27</v>
       </c>
@@ -14549,7 +14634,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>1236</v>
       </c>
@@ -14572,7 +14657,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B452" t="s">
         <v>27</v>
       </c>
@@ -14592,7 +14677,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>1241</v>
       </c>
@@ -14615,7 +14700,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>1244</v>
       </c>
@@ -14638,7 +14723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>1247</v>
       </c>
@@ -14661,7 +14746,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B456" t="s">
         <v>15</v>
       </c>
@@ -14681,7 +14766,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>1251</v>
       </c>
@@ -14704,7 +14789,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B458" t="s">
         <v>15</v>
       </c>
@@ -14724,7 +14809,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B459" t="s">
         <v>27</v>
       </c>
@@ -14744,7 +14829,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>1259</v>
       </c>
@@ -14767,7 +14852,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B461" t="s">
         <v>15</v>
       </c>
@@ -14787,7 +14872,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B462" t="s">
         <v>27</v>
       </c>
@@ -14807,7 +14892,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>1266</v>
       </c>
@@ -14830,7 +14915,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B464" t="s">
         <v>27</v>
       </c>
@@ -14850,7 +14935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B465" t="s">
         <v>27</v>
       </c>
@@ -14870,7 +14955,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>1272</v>
       </c>
@@ -14893,7 +14978,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B467" t="s">
         <v>27</v>
       </c>
@@ -14913,7 +14998,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>1278</v>
       </c>
@@ -14936,7 +15021,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B469" t="s">
         <v>27</v>
       </c>
@@ -14956,7 +15041,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B470" t="s">
         <v>27</v>
       </c>
@@ -14976,7 +15061,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>1284</v>
       </c>
@@ -14999,7 +15084,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B472" t="s">
         <v>27</v>
       </c>
@@ -15019,7 +15104,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B473" t="s">
         <v>15</v>
       </c>
@@ -15039,7 +15124,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>1292</v>
       </c>
@@ -15062,7 +15147,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B475" t="s">
         <v>15</v>
       </c>
@@ -15082,7 +15167,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>1297</v>
       </c>
@@ -15105,7 +15190,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>1299</v>
       </c>
@@ -15128,7 +15213,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>1302</v>
       </c>
@@ -15151,7 +15236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>1305</v>
       </c>
@@ -15174,7 +15259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>1308</v>
       </c>
@@ -15197,7 +15282,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>1312</v>
       </c>
@@ -15220,7 +15305,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>1314</v>
       </c>
@@ -15243,7 +15328,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>1317</v>
       </c>
@@ -15266,7 +15351,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>1320</v>
       </c>
@@ -15289,7 +15374,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>1322</v>
       </c>
@@ -15312,7 +15397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>1324</v>
       </c>
@@ -15335,7 +15420,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>1327</v>
       </c>
@@ -15358,7 +15443,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>1330</v>
       </c>
@@ -15381,7 +15466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B489" t="s">
         <v>15</v>
       </c>
@@ -15401,7 +15486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>1335</v>
       </c>
@@ -15424,7 +15509,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>1338</v>
       </c>
@@ -15447,7 +15532,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B492" t="s">
         <v>27</v>
       </c>
@@ -15467,7 +15552,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>1343</v>
       </c>
@@ -15490,7 +15575,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B494" t="s">
         <v>15</v>
       </c>
@@ -15510,7 +15595,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B495" t="s">
         <v>27</v>
       </c>
@@ -15530,7 +15615,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B496" t="s">
         <v>27</v>
       </c>
@@ -15550,7 +15635,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>1352</v>
       </c>
@@ -15573,7 +15658,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B498" t="s">
         <v>27</v>
       </c>
@@ -15593,7 +15678,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B499" t="s">
         <v>27</v>
       </c>
@@ -15613,7 +15698,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>1358</v>
       </c>
@@ -15636,7 +15721,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>1362</v>
       </c>
@@ -15659,7 +15744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>1365</v>
       </c>
@@ -15685,7 +15770,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>1370</v>
       </c>
@@ -15711,7 +15796,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>1374</v>
       </c>
@@ -15737,7 +15822,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>1378</v>
       </c>
@@ -15763,7 +15848,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>1382</v>
       </c>
@@ -15790,6 +15875,154 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H506" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D51E294-63B3-41D0-BB98-BDD0B06616CB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>